--- a/Intermediate II/Week 1/workbook/W1_V4 WorkingWithValidation.xlsx
+++ b/Intermediate II/Week 1/workbook/W1_V4 WorkingWithValidation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mq20084022\Google Drive\Excel MOOC\003 Course 3 - Intermediate II\01 Week 1\01 Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foongmin\Desktop\excel-skills-for-business\Intermediate II\Week 1\workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B633682-6210-4A12-B7C8-1F3EDED32529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9165"/>
+    <workbookView xWindow="9130" yWindow="200" windowWidth="10070" windowHeight="9490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="142">
   <si>
     <t>Location</t>
   </si>
@@ -442,12 +443,6 @@
   </si>
   <si>
     <t>Retail Price</t>
-  </si>
-  <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>Showrom</t>
   </si>
   <si>
     <t>Look up Lists</t>
@@ -468,7 +463,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="00"/>
@@ -651,51 +646,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Inventory" displayName="Inventory" ref="A3:M54" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" headerRowCellStyle="Heading 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Inventory" displayName="Inventory" ref="A3:M54" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" headerRowCellStyle="Heading 3">
   <tableColumns count="13">
-    <tableColumn id="1" name="Product Code"/>
-    <tableColumn id="2" name="Item Description"/>
-    <tableColumn id="3" name="Supplier"/>
-    <tableColumn id="4" name="Department"/>
-    <tableColumn id="5" name="Origin"/>
-    <tableColumn id="6" name="Location"/>
-    <tableColumn id="7" name="Rack" dataDxfId="9"/>
-    <tableColumn id="8" name="In Stock" dataDxfId="8"/>
-    <tableColumn id="9" name="Target Level" dataDxfId="7"/>
-    <tableColumn id="10" name="Reorder Level" dataDxfId="6"/>
-    <tableColumn id="11" name="Last Ordered" dataDxfId="5"/>
-    <tableColumn id="12" name="Unit Cost" dataDxfId="4"/>
-    <tableColumn id="13" name="Retail Price" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Product Code"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Item Description"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Supplier"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Department"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Origin"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Location"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Rack" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="In Stock" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Target Level" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Reorder Level" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Last Ordered" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Unit Cost" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Retail Price" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="OriginsTable" displayName="OriginsTable" ref="E3:E12" totalsRowShown="0" headerRowBorderDxfId="2" headerRowCellStyle="Heading 3">
-  <autoFilter ref="E3:E12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="OriginsTable" displayName="OriginsTable" ref="E3:E12" totalsRowShown="0" headerRowBorderDxfId="2" headerRowCellStyle="Heading 3">
+  <autoFilter ref="E3:E12" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Origins"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Origins"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="SuppliersTable" displayName="SuppliersTable" ref="A3:A10" totalsRowShown="0" headerRowBorderDxfId="1" headerRowCellStyle="Heading 3">
-  <autoFilter ref="A3:A10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="SuppliersTable" displayName="SuppliersTable" ref="A3:A10" totalsRowShown="0" headerRowBorderDxfId="1" headerRowCellStyle="Heading 3">
+  <autoFilter ref="A3:A10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Suppliers"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Suppliers"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="DepartmentsTable" displayName="DepartmentsTable" ref="C3:C9" totalsRowShown="0" headerRowBorderDxfId="0" headerRowCellStyle="Heading 3">
-  <autoFilter ref="C3:C9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="DepartmentsTable" displayName="DepartmentsTable" ref="C3:C9" totalsRowShown="0" headerRowBorderDxfId="0" headerRowCellStyle="Heading 3">
+  <autoFilter ref="C3:C9" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Departments"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Departments"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -997,29 +992,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="43.81640625" customWidth="1"/>
     <col min="3" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="6.26953125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" style="10" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" customWidth="1"/>
+    <col min="13" max="13" width="11.7265625" customWidth="1"/>
+    <col min="15" max="15" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
         <v>134</v>
       </c>
@@ -1036,13 +1033,13 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
@@ -1083,7 +1080,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1125,7 +1122,7 @@
       </c>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1167,7 +1164,7 @@
       </c>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1184,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
@@ -1209,7 +1206,7 @@
       </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -1251,7 +1248,7 @@
       </c>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1293,7 +1290,7 @@
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1312,8 +1309,8 @@
       <c r="F9" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>137</v>
+      <c r="G9" s="9">
+        <v>1</v>
       </c>
       <c r="H9" s="10">
         <v>14</v>
@@ -1335,7 +1332,7 @@
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1377,7 +1374,7 @@
       </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1397,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="9">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="H11" s="10">
         <v>8</v>
@@ -1419,7 +1416,7 @@
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1461,7 +1458,7 @@
       </c>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1503,7 +1500,7 @@
       </c>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1545,7 +1542,7 @@
       </c>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1587,7 +1584,7 @@
       </c>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1629,7 +1626,7 @@
       </c>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1671,7 +1668,7 @@
       </c>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -1713,7 +1710,7 @@
       </c>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1755,7 +1752,7 @@
       </c>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -1797,7 +1794,7 @@
       </c>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -1839,7 +1836,7 @@
       </c>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -1881,7 +1878,7 @@
       </c>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -1923,7 +1920,7 @@
       </c>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -1965,7 +1962,7 @@
       </c>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -2007,7 +2004,7 @@
       </c>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2049,7 +2046,7 @@
       </c>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -2091,7 +2088,7 @@
       </c>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2133,7 +2130,7 @@
       </c>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -2175,7 +2172,7 @@
       </c>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -2217,7 +2214,7 @@
       </c>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -2259,7 +2256,7 @@
       </c>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -2301,7 +2298,7 @@
       </c>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -2343,7 +2340,7 @@
       </c>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -2385,7 +2382,7 @@
       </c>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -2427,7 +2424,7 @@
       </c>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -2469,7 +2466,7 @@
       </c>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -2511,7 +2508,7 @@
       </c>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -2553,7 +2550,7 @@
       </c>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2595,7 +2592,7 @@
       </c>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -2637,7 +2634,7 @@
       </c>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -2679,7 +2676,7 @@
       </c>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -2721,7 +2718,7 @@
       </c>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -2763,7 +2760,7 @@
       </c>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -2805,7 +2802,7 @@
       </c>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>82</v>
       </c>
@@ -2847,7 +2844,7 @@
       </c>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -2889,7 +2886,7 @@
       </c>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -2931,7 +2928,7 @@
       </c>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -2973,7 +2970,7 @@
       </c>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -3015,7 +3012,7 @@
       </c>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -3057,7 +3054,7 @@
       </c>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -3099,7 +3096,7 @@
       </c>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -3141,7 +3138,7 @@
       </c>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -3183,7 +3180,7 @@
       </c>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -3227,26 +3224,26 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Rack Number" error="Please enter a rack number between 1 and 9" promptTitle="Rack Number" prompt="Please enter a rack number between 1 and 9" sqref="G4:G54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Rack Number" error="Please enter a rack number between 1 and 9" promptTitle="Rack Number" prompt="Please enter a rack number between 1 and 9" sqref="G4:G54" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
       <formula2>9</formula2>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Code" error="Should be 8 characters_x000a_" sqref="A4:A54">
+    <dataValidation type="custom" errorStyle="warning" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Code" error="Should be 8 characters_x000a_" sqref="A4:A54" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>COUNTIFS(Product_Code,A4)&lt;=1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F54" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Basement,Showroom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E54" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Origins</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C54" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Suppliers</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D54" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Departments</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K54">
+    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K54" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>TODAY()</formula1>
     </dataValidation>
   </dataValidations>
@@ -3259,42 +3256,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -3305,7 +3302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -3316,7 +3313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -3327,7 +3324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -3338,7 +3335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>123</v>
       </c>
@@ -3349,7 +3346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -3360,7 +3357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -3368,14 +3365,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
